--- a/src/main/java/com/qa/tie/testdata/TiEData.xlsx
+++ b/src/main/java/com/qa/tie/testdata/TiEData.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NaveenKhunteta/Documents/workspace/Dec2019POMSeries/src/main/java/com/qa/hubspot/testdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1520" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="4800" yWindow="1515" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="contacts" sheetId="1" r:id="rId1"/>
+    <sheet name="Company" sheetId="1" r:id="rId1"/>
     <sheet name="Deals" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,30 +21,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>jobtitle</t>
-  </si>
-  <si>
     <t>mahe@gmail.com</t>
   </si>
   <si>
-    <t>mahe</t>
-  </si>
-  <si>
-    <t>mahelastname</t>
-  </si>
-  <si>
-    <t>Eng Mangaer</t>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>FullAddress</t>
+  </si>
+  <si>
+    <t>ABC1</t>
+  </si>
+  <si>
+    <t>ABC2</t>
+  </si>
+  <si>
+    <t>ABC3</t>
+  </si>
+  <si>
+    <t>ABC4</t>
+  </si>
+  <si>
+    <t>ABC5</t>
+  </si>
+  <si>
+    <t>ABC6</t>
+  </si>
+  <si>
+    <t>ABC7</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Ukrain</t>
+  </si>
+  <si>
+    <t>Masco</t>
+  </si>
+  <si>
+    <t>Huwan</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Georgia City</t>
+  </si>
+  <si>
+    <t>Safdar Nawaz</t>
+  </si>
+  <si>
+    <t>obrai</t>
+  </si>
+  <si>
+    <t>rahul</t>
+  </si>
+  <si>
+    <t>Tamanna</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>Chandni</t>
+  </si>
+  <si>
+    <t>Muskan</t>
   </si>
 </sst>
 </file>
@@ -162,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -197,7 +267,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -374,7 +444,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -382,44 +452,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="C2">
+        <v>1234567890</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>12345</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1234567890</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>12345</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1234567890</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>12345</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1234567890</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>12345</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1234567890</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>12345</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1234567890</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>12345</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1234567890</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>12345</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -435,7 +688,7 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -447,7 +700,7 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/qa/tie/testdata/TiEData.xlsx
+++ b/src/main/java/com/qa/tie/testdata/TiEData.xlsx
@@ -444,7 +444,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -455,7 +455,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -501,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1234567890</v>
+        <v>9931333088</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1234567890</v>
+        <v>9931333088</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1234567890</v>
+        <v>9931333088</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -579,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1234567890</v>
+        <v>9931333088</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -605,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1234567890</v>
+        <v>9931333088</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -631,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1234567890</v>
+        <v>9931333088</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1234567890</v>
+        <v>9931333088</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
